--- a/financial_models/opportunities/SIRI_Valuation.xlsx
+++ b/financial_models/opportunities/SIRI_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71559CA5-A72A-D44F-BBC6-DBEB12A3AD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6765ADA6-D273-425E-BC5B-B68E00179DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -1021,19 +1021,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1686,7 +1686,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="300">
@@ -1742,8 +1742,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1766,14 +1766,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1803,7 +1803,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1904,7 +1904,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1931,7 +1931,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,10 +1984,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2023,7 +2023,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2050,16 +2050,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,7 +2080,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2102,10 +2102,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2114,10 +2114,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2134,7 +2134,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2146,13 +2146,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2186,7 +2186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,19 +2230,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2267,7 +2267,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2279,10 +2279,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2313,19 +2313,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2344,7 +2344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2362,7 +2362,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2371,7 +2371,7 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2380,7 +2380,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2394,7 +2394,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2407,14 +2407,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -2823,24 +2823,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="139" t="s">
         <v>179</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="139" t="s">
         <v>180</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="139" t="s">
         <v>154</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>45644</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="138" t="s">
         <v>3</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E8" s="262"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>339201984</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="138" t="s">
         <v>203</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="213" t="s">
         <v>9</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="213" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="213" t="s">
         <v>236</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="217" t="s">
         <v>92</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="235" t="s">
         <v>222</v>
       </c>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="236" t="s">
         <v>212</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="219" t="s">
         <v>215</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="221" t="s">
         <v>214</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="114" t="s">
         <v>127</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="L25" s="147"/>
       <c r="M25" s="147"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="96" t="s">
         <v>101</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="L26" s="148"/>
       <c r="M26" s="148"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="96" t="s">
         <v>99</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="L27" s="148"/>
       <c r="M27" s="148"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="L28" s="148"/>
       <c r="M28" s="148"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="96" t="s">
         <v>237</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="L29" s="148"/>
       <c r="M29" s="148"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="98" t="s">
         <v>106</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="L30" s="148"/>
       <c r="M30" s="148"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="96" t="s">
         <v>105</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="L31" s="148"/>
       <c r="M31" s="148"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="L32" s="148"/>
       <c r="M32" s="148"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="L33" s="148"/>
       <c r="M33" s="148"/>
     </row>
-    <row r="34" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="96" t="s">
         <v>260</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="L34" s="148"/>
       <c r="M34" s="148"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="93" t="s">
         <v>111</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="L35" s="148"/>
       <c r="M35" s="148"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="93" t="s">
         <v>140</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="L36" s="148"/>
       <c r="M36" s="148"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="93" t="s">
         <v>259</v>
       </c>
@@ -3350,7 +3350,7 @@
       <c r="L37" s="148"/>
       <c r="M37" s="148"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="93" t="s">
         <v>265</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="L38" s="148"/>
       <c r="M38" s="148"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="L39" s="148"/>
       <c r="M39" s="148"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="L40" s="148"/>
       <c r="M40" s="148"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="93" t="s">
         <v>131</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="L41" s="148"/>
       <c r="M41" s="148"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="L42" s="148"/>
       <c r="M42" s="148"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="93" t="s">
         <v>130</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="L43" s="148"/>
       <c r="M43" s="148"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>192</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="L44" s="245"/>
       <c r="M44" s="245"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>233</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="str">
         <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
         <v>Balance Sheet</v>
@@ -3548,7 +3548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E48" s="111"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>129</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="E49" s="111"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>111</v>
       </c>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="E50" s="111"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>37</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E51" s="111"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>39</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="E52" s="111"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>149</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="E53" s="111"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>242</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="E54" s="111"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>42</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="E55" s="111"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>43</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>114</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>45</v>
       </c>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E58" s="111"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>46</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="E59" s="111"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E60" s="111"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E61" s="111"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="E62" s="111"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="E63" s="111"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>241</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="E64" s="111"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>44</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>113</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="E68" s="111"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E69" s="111"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="E70" s="111"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E71" s="111"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="241" t="s">
         <v>71</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="E72" s="244"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>34</v>
       </c>
@@ -3848,25 +3848,25 @@
         <v>666</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C76" s="118"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>57</v>
       </c>
@@ -3882,49 +3882,49 @@
         <v>10137</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
       <c r="C81" s="118"/>
     </row>
-    <row r="82" spans="2:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>263</v>
       </c>
       <c r="C82" s="212"/>
     </row>
-    <row r="83" spans="2:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>264</v>
       </c>
       <c r="C83" s="212"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>231</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>230</v>
       </c>
@@ -3940,10 +3940,10 @@
         <v>232</v>
       </c>
       <c r="D87" s="264">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
@@ -3976,7 +3976,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>120</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>8817</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="103" t="s">
         <v>101</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="103" t="s">
         <v>229</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="103" t="s">
         <v>237</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>228</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>105</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>160</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="85" t="s">
         <v>192</v>
       </c>
@@ -4208,22 +4208,22 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -4232,7 +4232,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4247,7 +4247,7 @@
       <c r="G2" s="85"/>
       <c r="H2" s="85"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="85" t="s">
         <v>177</v>
       </c>
@@ -4358,8 +4358,8 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="137" t="s">
         <v>176</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="120" t="s">
         <v>166</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="86" t="s">
         <v>234</v>
       </c>
@@ -4404,8 +4404,8 @@
       </c>
       <c r="F12" s="109"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>163</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>172</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="86" t="s">
         <v>235</v>
       </c>
@@ -4451,8 +4451,8 @@
       </c>
       <c r="D17" s="173"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="140" t="s">
         <v>258</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="G19" s="86"/>
       <c r="H19" s="86"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="270" t="s">
         <v>249</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
         <v>254</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="275" t="s">
         <v>267</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>0.69783334768947414</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>5.950351254464076</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="135" t="s">
         <v>256</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0.28766245992932865</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="136" t="s">
         <v>257</v>
       </c>
@@ -4569,8 +4569,8 @@
         <v>4.8343777976723366E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="89" t="s">
         <v>6</v>
@@ -4590,45 +4590,45 @@
       </c>
       <c r="H28" s="286"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
         <v>159</v>
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>21.62464551278746</v>
+        <v>15.918079995772906</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>67.167805126088908</v>
+        <v>57.260103947545005</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>25.440759426808775</v>
+        <v>19.291424062062323</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>58.406787066164277</v>
+        <v>49.791394736995663</v>
       </c>
       <c r="H29" s="287"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="193" t="s">
         <v>207</v>
       </c>
       <c r="C32" s="219"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>208</v>
@@ -4638,7 +4638,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>209</v>
@@ -4649,14 +4649,14 @@
         <v>Strongly disagree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="193" t="s">
         <v>210</v>
       </c>
       <c r="C35" s="219"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>222</v>
@@ -4666,7 +4666,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>223</v>
@@ -4676,14 +4676,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="193" t="s">
         <v>211</v>
       </c>
       <c r="C38" s="219"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>212</v>
@@ -4693,7 +4693,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>215</v>
@@ -4703,19 +4703,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="221" t="s">
         <v>214</v>
@@ -4725,886 +4725,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -5678,7 +5678,7 @@
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -5686,7 +5686,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -5694,7 +5694,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -5719,7 +5719,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="102" t="s">
         <v>9</v>
@@ -5748,7 +5748,7 @@
       <c r="L3" s="86"/>
       <c r="M3" s="86"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="102" t="s">
         <v>10</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="114" t="s">
         <v>127</v>
@@ -5820,7 +5820,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="93" t="s">
         <v>11</v>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="N6" s="86"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="95" t="s">
         <v>12</v>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="N7" s="86"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="96" t="s">
         <v>101</v>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="N8" s="86"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="97" t="s">
         <v>98</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="N9" s="86"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="96" t="s">
         <v>99</v>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="N10" s="86"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="96" t="s">
         <v>102</v>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="N11" s="86"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
         <v>224</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="N12" s="86"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="223" t="s">
         <v>225</v>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="N13" s="86"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="223" t="s">
         <v>217</v>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="N14" s="86"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="226" t="s">
         <v>226</v>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="N15" s="86"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="96" t="s">
         <v>105</v>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="N16" s="86"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="96" t="s">
         <v>237</v>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="N17" s="86"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="93" t="s">
         <v>94</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="N18" s="86"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="96" t="s">
         <v>100</v>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="N19" s="86"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="96" t="s">
         <v>219</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="N20" s="86"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="96" t="s">
         <v>103</v>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="N21" s="86"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="97" t="s">
         <v>107</v>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="N22" s="86"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="99" t="s">
         <v>108</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="N23" s="86"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="100" t="s">
         <v>109</v>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="N24" s="86"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="229" t="s">
         <v>122</v>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="N25" s="86"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="113" t="s">
         <v>128</v>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="N26" s="86"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="93" t="s">
         <v>13</v>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="N27" s="86"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="93" t="s">
         <v>111</v>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="N28" s="86"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="93" t="s">
         <v>140</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="N29" s="86"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="93" t="s">
         <v>259</v>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="N30" s="86"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="93" t="s">
         <v>16</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="N31" s="86"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="93" t="s">
         <v>17</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="N32" s="86"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="93" t="s">
         <v>18</v>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="N33" s="86"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="93" t="s">
         <v>131</v>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="N34" s="86"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="93" t="s">
         <v>132</v>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="N35" s="86"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="93" t="s">
         <v>130</v>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="N36" s="86"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="93" t="s">
         <v>134</v>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N37" s="86"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="97" t="s">
         <v>148</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="N38" s="86"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>244</v>
@@ -7521,7 +7521,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="86"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="94" t="s">
         <v>93</v>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="N40" s="86"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="93" t="s">
         <v>218</v>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="N41" s="86"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="93" t="s">
         <v>104</v>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="N42" s="86"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="93" t="s">
         <v>116</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="N43" s="86"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="93" t="s">
         <v>123</v>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="N44" s="86"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="93" t="s">
         <v>220</v>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="N45" s="86"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="93" t="s">
         <v>118</v>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="N46" s="86"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="101" t="s">
         <v>245</v>
@@ -7898,7 +7898,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="86"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="266" t="s">
         <v>251</v>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="N48" s="86"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="93" t="s">
         <v>252</v>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="N49" s="86"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="93" t="s">
         <v>253</v>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="N50" s="86"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="93" t="s">
         <v>243</v>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="N51" s="86"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="101" t="s">
         <v>246</v>
@@ -8119,7 +8119,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
         <v>247</v>
@@ -8169,7 +8169,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="93" t="s">
         <v>115</v>
@@ -8219,7 +8219,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="93" t="s">
         <v>117</v>
@@ -8269,7 +8269,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="93" t="s">
         <v>266</v>
@@ -8319,7 +8319,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="101" t="s">
         <v>248</v>
@@ -8369,7 +8369,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="266" t="s">
         <v>249</v>
@@ -8419,7 +8419,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="266" t="s">
         <v>250</v>
@@ -8469,1253 +8469,1253 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23">
@@ -9760,11 +9760,11 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -9772,11 +9772,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>19</v>
@@ -9792,7 +9792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -9832,7 +9832,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="str">
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in USD</v>
@@ -9873,7 +9873,7 @@
       <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="str">
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in USD</v>
@@ -9897,13 +9897,13 @@
       <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="86"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>27</v>
@@ -9923,7 +9923,7 @@
       <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>28</v>
       </c>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
@@ -9976,7 +9976,7 @@
       <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>111</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
@@ -10060,7 +10060,7 @@
       <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="J15" s="86"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>149</v>
       </c>
@@ -10109,7 +10109,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="86"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>112</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="86"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -10152,7 +10152,7 @@
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>114</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="86"/>
       <c r="D23" s="86"/>
       <c r="E23" s="86"/>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="G23" s="86"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>48</v>
       </c>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="G24" s="86"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>50</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>0.17892845475334859</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>52</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>14</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="86"/>
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
@@ -10419,7 +10419,7 @@
       <c r="I29" s="86"/>
       <c r="J29" s="86"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="J30" s="86"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="J31" s="86"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="J32" s="86"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J33" s="86"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>63</v>
       </c>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="J34" s="86"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="J35" s="86"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
@@ -10609,7 +10609,7 @@
       <c r="H36" s="86"/>
       <c r="I36" s="86"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
@@ -10636,7 +10636,7 @@
       <c r="H37" s="86"/>
       <c r="I37" s="86"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>113</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="H38" s="86"/>
       <c r="I38" s="86"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
@@ -10678,7 +10678,7 @@
       <c r="H39" s="86"/>
       <c r="I39" s="86"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
       <c r="H40" s="86"/>
       <c r="I40" s="86"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>70</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="H41" s="86"/>
       <c r="I41" s="86"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>71</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="86"/>
       <c r="D43" s="86"/>
       <c r="E43" s="86"/>
@@ -10755,7 +10755,7 @@
       <c r="H43" s="86"/>
       <c r="I43" s="86"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>72</v>
       </c>
@@ -10774,7 +10774,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="86"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>74</v>
       </c>
@@ -10793,7 +10793,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="86"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>75</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>77</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -10907,20 +10907,20 @@
       </c>
       <c r="J49" s="86"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="86"/>
       <c r="D50" s="86"/>
       <c r="E50" s="86"/>
       <c r="I50" s="86"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>83</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>84</v>
       </c>
@@ -10958,7 +10958,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="86"/>
       <c r="D54" s="86"/>
       <c r="E54" s="86"/>
@@ -10967,7 +10967,7 @@
       <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>141</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>85</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>86</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>88</v>
       </c>
@@ -11024,7 +11024,7 @@
       <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="86"/>
       <c r="D59" s="86"/>
       <c r="E59" s="86"/>
@@ -11033,7 +11033,7 @@
       <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>144</v>
       </c>
@@ -11047,7 +11047,7 @@
       <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>90</v>
       </c>
@@ -11068,7 +11068,7 @@
       <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>133</v>
       </c>
@@ -11089,7 +11089,7 @@
       <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>135</v>
       </c>
@@ -11110,7 +11110,7 @@
       <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="119" t="s">
         <v>142</v>
       </c>
@@ -11125,7 +11125,7 @@
       <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>136</v>
       </c>
@@ -11146,7 +11146,7 @@
       <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11156,7 +11156,7 @@
       <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>145</v>
       </c>
@@ -11170,7 +11170,7 @@
       <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>134</v>
       </c>
@@ -11191,7 +11191,7 @@
       <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="119" t="s">
         <v>143</v>
       </c>
@@ -11206,7 +11206,7 @@
       <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>137</v>
       </c>
@@ -11227,7 +11227,7 @@
       <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="105" t="s">
         <v>121</v>
@@ -11249,7 +11249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
@@ -11268,7 +11268,7 @@
       <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>120</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="103" t="s">
         <v>101</v>
       </c>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>91</v>
       </c>
@@ -11340,7 +11340,7 @@
       <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="103" t="s">
         <v>229</v>
       </c>
@@ -11370,7 +11370,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
         <v>160</v>
       </c>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="251" t="s">
         <v>216</v>
       </c>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>105</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="103" t="s">
         <v>237</v>
       </c>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
         <v>228</v>
       </c>
@@ -11523,7 +11523,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="104" t="s">
         <v>119</v>
       </c>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>92</v>
       </c>
@@ -11574,7 +11574,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="258" t="s">
         <v>155</v>
       </c>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="86" t="s">
         <v>151</v>
       </c>
@@ -11626,7 +11626,7 @@
       <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="86" t="s">
         <v>193</v>
       </c>
@@ -11647,7 +11647,7 @@
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="85" t="s">
         <v>192</v>
       </c>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="86" t="s">
         <v>205</v>
       </c>
@@ -11698,11 +11698,11 @@
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="87"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -11713,7 +11713,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>146</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>US Discount Rate</v>
@@ -11753,18 +11753,18 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>148.42211861076797</v>
+        <v>136.05360872653728</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>148.42211861076797</v>
+        <v>136.05360872653728</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>196</v>
       </c>
@@ -11774,29 +11774,29 @@
       </c>
       <c r="D94" s="265">
         <f>Inputs!D87</f>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>24.864496870808406</v>
+        <v>22.792455464907704</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>24.864496870808406</v>
+        <v>22.792455464907704</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -11825,31 +11825,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>25030.401072040237</v>
+        <v>22944.534316036876</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>73.792024376957173</v>
+        <v>67.642689012210724</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>73.792024376957173</v>
+        <v>67.642689012210724</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>103.38470795002326</v>
+        <v>94.769315620854641</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>138</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
@@ -11888,41 +11888,41 @@
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9773.8010720402381</v>
+        <v>7687.9343160368771</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>21.62464551278746</v>
+        <v>15.918079995772906</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>22.067415360519355</v>
+        <v>15.918079995772906</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>25.440759426808775</v>
+        <v>19.291424062062323</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.814103493098195</v>
+        <v>22.664768128351739</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>58.406787066164277</v>
+        <v>49.791394736995663</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>153</v>
       </c>
@@ -11949,41 +11949,41 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4193.231675684161</v>
+        <v>3843.7957027104808</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.507741972203608</v>
+        <v>9.6320968078533067</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.362049379063068</v>
+        <v>11.331878597474478</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>12.362049379063068</v>
+        <v>11.331878597474478</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>12.362049379063068</v>
+        <v>11.331878597474478</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.319579934404047</v>
+        <v>15.876281606537042</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>182</v>
       </c>
@@ -12010,40 +12010,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5839.2713738622006</v>
+        <v>4621.6200093736807</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>16.066193742495535</v>
+        <v>12.775088401813107</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>17.214732369791211</v>
+        <v>13.624979296623692</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>18.901404402935921</v>
+        <v>15.3116513297684</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>20.58807643608063</v>
+        <v>16.998323362913109</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>37.863183500284165</v>
+        <v>32.833838171766352</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>156</v>
       </c>

--- a/financial_models/opportunities/SIRI_Valuation.xlsx
+++ b/financial_models/opportunities/SIRI_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6765ADA6-D273-425E-BC5B-B68E00179DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72154C4-16E9-4D2D-BEC2-53E2D1C7CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -995,25 +995,25 @@
   </si>
   <si>
     <t>SIRI</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiriusXM</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0012</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiriusXM</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier 3</t>
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2823,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2853,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2877,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2886,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2902,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8343777976723366E-2</v>
+        <v>5.2478134110787181E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4207,8 +4207,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4261,10 +4261,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>22.34</v>
+        <v>20.58</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>7577.7723225600002</v>
+        <v>6980.7768307199995</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.69783334768947414</v>
+        <v>0.64285632477392018</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.950351254464076</v>
+        <v>5.4815679864310951</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8343777976723366E-2</v>
+        <v>5.2478134110787181E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4596,20 +4596,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.918079995772906</v>
+        <v>20.023123879415497</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>57.260103947545005</v>
+        <v>64.132106845514087</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.291424062062323</v>
+        <v>23.556616328724115</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>49.791394736995663</v>
+        <v>55.767049430881819</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -5642,7 +5642,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -5672,10 +5672,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9760,8 +9760,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11632,17 +11632,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16805730573464542</v>
+        <v>0.18242955345539255</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16805730573464542</v>
+        <v>0.18242955345539255</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16805730573464542</v>
+        <v>0.18242955345539255</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11683,17 +11683,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8343777976723366E-2</v>
+        <v>5.2478134110787181E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8343777976723366E-2</v>
+        <v>5.2478134110787181E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8343777976723366E-2</v>
+        <v>5.2478134110787181E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11753,14 +11753,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>136.05360872653728</v>
+        <v>144.63243384815686</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>136.05360872653728</v>
+        <v>144.63243384815686</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11781,14 +11781,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.792455464907704</v>
+        <v>23.245447670196274</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.792455464907704</v>
+        <v>23.245447670196274</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11831,21 +11831,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>22944.534316036876</v>
+        <v>24391.295995030014</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>67.642689012210724</v>
+        <v>71.907881278872509</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>67.642689012210724</v>
+        <v>71.907881278872509</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>94.769315620854641</v>
+        <v>100.7449703147408</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11894,27 +11894,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>7687.9343160368771</v>
+        <v>9134.6959950300152</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.918079995772906</v>
+        <v>20.023123879415497</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.918079995772906</v>
+        <v>20.183272262434691</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>19.291424062062323</v>
+        <v>23.556616328724115</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>22.664768128351739</v>
+        <v>26.929960395013538</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>49.791394736995663</v>
+        <v>55.767049430881819</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11955,27 +11955,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3843.7957027104808</v>
+        <v>3920.1898189447052</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.6320968078533067</v>
+        <v>9.8235314157331075</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.331878597474478</v>
+        <v>11.557095783215422</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>11.331878597474478</v>
+        <v>11.557095783215422</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.331878597474478</v>
+        <v>11.557095783215422</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.876281606537042</v>
+        <v>16.191817237518112</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12016,27 +12016,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4621.6200093736807</v>
+        <v>5383.1979069873605</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>12.775088401813107</v>
+        <v>14.923327647574302</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>13.624979296623692</v>
+        <v>15.870184022825057</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>15.3116513297684</v>
+        <v>17.556856055969767</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>16.998323362913109</v>
+        <v>19.243528089114481</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>32.833838171766352</v>
+        <v>35.979433334199967</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/SIRI_Valuation.xlsx
+++ b/financial_models/opportunities/SIRI_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A664A1-2293-4879-A100-98B188B2C195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FE7B20-5E42-4D40-9580-E01581425FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4695,7 +4695,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4814,20 +4814,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.379795223078244</v>
+        <v>17.350032062902823</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>38.729311381972785</v>
+        <v>53.63016516375059</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.270347321268524</v>
+        <v>20.411802426944497</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>33.677662071280686</v>
+        <v>46.634926229348345</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11978,21 +11978,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>97.713584906473258</v>
+        <v>131.52208996982083</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>97.713584906473258</v>
+        <v>131.52208996982083</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12013,14 +12013,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.604452577402252</v>
+        <v>22.546897868809964</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.604452577402252</v>
+        <v>22.546897868809964</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12063,21 +12063,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21793.140043743366</v>
+        <v>22180.323880235588</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>64.248268205127502</v>
+        <v>65.389723310803475</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>64.248268205127502</v>
+        <v>65.389723310803475</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>78.655582955139664</v>
+        <v>91.612847113207323</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12127,23 +12127,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>16.379795223078244</v>
+        <v>17.350032062902823</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>19.270347321268524</v>
+        <v>20.411802426944497</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>19.270347321268524</v>
+        <v>20.411802426944497</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>19.270347321268524</v>
+        <v>20.411802426944497</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>33.677662071280686</v>
+        <v>46.634926229348345</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12182,23 +12182,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>11.515597725514535</v>
+        <v>9.528324112491072</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>13.5477620300171</v>
+        <v>11.209793073518908</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>13.5477620300171</v>
+        <v>11.209793073518908</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.5477620300171</v>
+        <v>11.209793073518908</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>16.585771881139326</v>
+        <v>15.705236343236017</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12237,23 +12237,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>13.947696474296389</v>
+        <v>13.439178087696948</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>16.409054675642814</v>
+        <v>15.810797750231703</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>16.409054675642814</v>
+        <v>15.810797750231703</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>16.409054675642814</v>
+        <v>15.810797750231703</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>25.131716976210008</v>
+        <v>31.170081286292181</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/SIRI_Valuation.xlsx
+++ b/financial_models/opportunities/SIRI_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FE7B20-5E42-4D40-9580-E01581425FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B55E9E-6611-4213-BED1-D6ACF6439DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4379,7 +4380,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4402,6 +4403,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4420,8 +4424,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4457,18 +4461,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>SIRI</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4484,7 +4491,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>SiriusXM</v>
       </c>
@@ -4513,11 +4520,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>7950.8945049599997</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4540,11 +4547,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4612,10 +4619,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4662,7 +4669,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4803,10 +4810,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4814,22 +4821,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.350032062902823</v>
+        <v>22.402874318737624</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>53.63016516375059</v>
+        <v>65.918424414925781</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.411802426944497</v>
-      </c>
-      <c r="G29" s="312">
+        <v>26.356322727926617</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>46.634926229348345</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>57.320369056457203</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5811,15 +5818,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5847,7 +5855,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11974,7 +11982,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11985,14 +11993,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>131.52208996982083</v>
+        <v>143.47864360344087</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>131.52208996982083</v>
+        <v>143.47864360344087</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12013,14 +12021,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.546897868809964</v>
+        <v>24.596615856883592</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.546897868809964</v>
+        <v>24.596615856883592</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12063,21 +12071,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>22180.323880235588</v>
+        <v>24196.716960256999</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>65.389723310803475</v>
+        <v>71.334243611785595</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>65.389723310803475</v>
+        <v>71.334243611785595</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>91.612847113207323</v>
+        <v>102.29828994031618</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12127,23 +12135,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.350032062902823</v>
+        <v>22.402874318737624</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>20.411802426944497</v>
+        <v>26.356322727926617</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>20.411802426944497</v>
+        <v>26.356322727926617</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>20.411802426944497</v>
+        <v>26.356322727926617</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>46.634926229348345</v>
+        <v>57.320369056457203</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12182,23 +12190,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.528324112491072</v>
+        <v>10.394535395444803</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.209793073518908</v>
+        <v>12.228865171111533</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>11.209793073518908</v>
+        <v>12.228865171111533</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.209793073518908</v>
+        <v>12.228865171111533</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.705236343236017</v>
+        <v>17.537047168026849</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12237,23 +12245,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>13.439178087696948</v>
+        <v>16.398704857091214</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>15.810797750231703</v>
+        <v>19.292593949519073</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>15.810797750231703</v>
+        <v>19.292593949519073</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>15.810797750231703</v>
+        <v>19.292593949519073</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>31.170081286292181</v>
+        <v>37.428708112242028</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/SIRI_Valuation.xlsx
+++ b/financial_models/opportunities/SIRI_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B55E9E-6611-4213-BED1-D6ACF6439DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACDB6B8-C83D-4548-B5B8-FE09861625A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4461,21 +4461,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>SIRI</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4491,40 +4491,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>SiriusXM</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>339201984</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>7950.8945049599997</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4547,11 +4547,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4702,7 +4702,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4810,10 +4810,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4821,22 +4821,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>22.402874318737624</v>
+        <v>21.871324302787318</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>65.918424414925781</v>
+        <v>56.774985388597059</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>26.356322727926617</v>
-      </c>
-      <c r="G29" s="313">
+        <v>25.73096976798508</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>57.320369056457203</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>49.369552511823535</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5819,15 +5819,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11200,7 +11200,7 @@
         <f>I15+I34</f>
         <v>10803</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11211,11 +11211,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11227,11 +11227,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11986,21 +11986,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>143.47864360344087</v>
+        <v>123.67029168064178</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>143.47864360344087</v>
+        <v>123.67029168064178</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12021,14 +12021,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>24.596615856883592</v>
+        <v>23.513241259598349</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>24.596615856883592</v>
+        <v>23.513241259598349</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12071,21 +12071,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>24196.716960256999</v>
+        <v>23984.595995544558</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>71.334243611785595</v>
+        <v>70.708890651844058</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>71.334243611785595</v>
+        <v>70.708890651844058</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>102.29828994031618</v>
+        <v>94.347473395682513</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12135,23 +12135,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.402874318737624</v>
+        <v>21.871324302787318</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>26.356322727926617</v>
+        <v>25.73096976798508</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>26.356322727926617</v>
+        <v>25.73096976798508</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>26.356322727926617</v>
+        <v>25.73096976798508</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>57.320369056457203</v>
+        <v>49.369552511823535</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12190,23 +12190,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.394535395444803</v>
+        <v>11.427206203899273</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.228865171111533</v>
+        <v>13.44377200458738</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>12.228865171111533</v>
+        <v>13.44377200458738</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>12.228865171111533</v>
+        <v>13.44377200458738</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.537047168026849</v>
+        <v>17.938139176665903</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12245,23 +12245,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>16.398704857091214</v>
+        <v>16.649265253343295</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>19.292593949519073</v>
+        <v>19.58737088628623</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>19.292593949519073</v>
+        <v>19.58737088628623</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>19.292593949519073</v>
+        <v>19.58737088628623</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>37.428708112242028</v>
+        <v>33.653845844244721</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/SIRI_Valuation.xlsx
+++ b/financial_models/opportunities/SIRI_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E653D9C5-F4B2-40B0-ABEB-1771D2DB1F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCD5655-7C04-46A8-9C57-71CDEDC03C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.607508532423208E-2</v>
+        <v>4.8868778280542986E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4495,27 +4495,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>SIRI</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>23.44</v>
+        <v>22.1</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>288</v>
@@ -4525,7 +4525,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>SiriusXM</v>
       </c>
@@ -4554,11 +4554,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>7950.8945049599997</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>7496.3638464000005</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4581,11 +4581,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.73219398701169536</v>
+        <v>0.69033648092826227</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.2433407969846888</v>
+        <v>5.8864262633686693</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.607508532423208E-2</v>
+        <v>4.8868778280542986E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4844,10 +4844,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4855,22 +4855,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>21.871324302787318</v>
+        <v>23.909191517489244</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>56.774985388597059</v>
+        <v>60.453826640685087</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>25.73096976798508</v>
-      </c>
-      <c r="G29" s="313">
+        <v>28.128460608810876</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>49.369552511823535</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>52.568544904943558</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5853,15 +5853,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -12008,17 +12008,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16017065742798542</v>
+        <v>0.1698823624485058</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16017065742798542</v>
+        <v>0.1698823624485058</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16017065742798542</v>
+        <v>0.1698823624485058</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.607508532423208E-2</v>
+        <v>4.8868778280542986E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.607508532423208E-2</v>
+        <v>4.8868778280542986E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.607508532423208E-2</v>
+        <v>4.8868778280542986E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12129,14 +12129,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>123.67029168064178</v>
+        <v>127.86351814556387</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>123.67029168064178</v>
+        <v>127.86351814556387</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12157,14 +12157,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.513241259598349</v>
+        <v>23.765431157367793</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.513241259598349</v>
+        <v>23.765431157367793</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12207,21 +12207,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>23984.595995544558</v>
+        <v>24797.829645374495</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>70.708890651844058</v>
+        <v>73.106381492669854</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>70.708890651844058</v>
+        <v>73.106381492669854</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>94.347473395682513</v>
+        <v>97.546465788802536</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12271,23 +12271,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>21.871324302787318</v>
+        <v>23.909191517489244</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>25.73096976798508</v>
+        <v>28.128460608810876</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>25.73096976798508</v>
+        <v>28.128460608810876</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>25.73096976798508</v>
+        <v>28.128460608810876</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>49.369552511823535</v>
+        <v>52.568544904943558</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12326,23 +12326,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>11.427206203899273</v>
+        <v>11.549768037571409</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>13.44377200458738</v>
+        <v>13.587962397142835</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>13.44377200458738</v>
+        <v>13.587962397142835</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.44377200458738</v>
+        <v>13.587962397142835</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>17.938139176665903</v>
+        <v>18.130533642200966</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12381,23 +12381,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>16.649265253343295</v>
+        <v>17.729479777530326</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>19.58737088628623</v>
+        <v>20.858211502976857</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>19.58737088628623</v>
+        <v>20.858211502976857</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>19.58737088628623</v>
+        <v>20.858211502976857</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>33.653845844244721</v>
+        <v>35.349539273572262</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/SIRI_Valuation.xlsx
+++ b/financial_models/opportunities/SIRI_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCD5655-7C04-46A8-9C57-71CDEDC03C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C8F94B8-765C-4F6A-85EC-EF7B7B50746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8868778280542986E-2</v>
+        <v>5.1674641148325366E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4495,27 +4495,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>SIRI</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>22.1</v>
+        <v>20.9</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>288</v>
@@ -4525,40 +4525,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>SiriusXM</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>339201984</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>7496.3638464000005</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>7089.3214655999991</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4581,11 +4581,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.69033648092826227</v>
+        <v>0.65285214712220274</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.8864262633686693</v>
+        <v>5.5668013078916374</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8868778280542986E-2</v>
+        <v>5.1674641148325366E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4844,10 +4844,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4855,22 +4855,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>23.909191517489244</v>
+        <v>26.007662263601755</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>60.453826640685087</v>
+        <v>64.242071866578172</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.128460608810876</v>
-      </c>
-      <c r="G29" s="314">
+        <v>30.597249721884417</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>52.568544904943558</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>55.862671188328854</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5853,15 +5853,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11336,7 +11336,7 @@
         <f>I15+I34</f>
         <v>10803</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11347,11 +11347,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11363,11 +11363,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -12008,17 +12008,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1698823624485058</v>
+        <v>0.17963637368956836</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1698823624485058</v>
+        <v>0.17963637368956836</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1698823624485058</v>
+        <v>0.17963637368956836</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8868778280542986E-2</v>
+        <v>5.1674641148325366E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8868778280542986E-2</v>
+        <v>5.1674641148325366E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8868778280542986E-2</v>
+        <v>5.1674641148325366E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12129,14 +12129,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>127.86351814556387</v>
+        <v>132.18144573426144</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>127.86351814556387</v>
+        <v>132.18144573426144</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12157,14 +12157,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.765431157367793</v>
+        <v>24.020756119532777</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.765431157367793</v>
+        <v>24.020756119532777</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12207,21 +12207,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>24797.829645374495</v>
+        <v>25635.247810606641</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>73.106381492669854</v>
+        <v>75.575170605743395</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>73.106381492669854</v>
+        <v>75.575170605743395</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>97.546465788802536</v>
+        <v>100.84059207218783</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12271,23 +12271,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.909191517489244</v>
+        <v>26.007662263601755</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>28.128460608810876</v>
+        <v>30.597249721884417</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>28.128460608810876</v>
+        <v>30.597249721884417</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>28.128460608810876</v>
+        <v>30.597249721884417</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>52.568544904943558</v>
+        <v>55.862671188328854</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12326,23 +12326,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>11.549768037571409</v>
+        <v>11.673853482000345</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>13.587962397142835</v>
+        <v>13.733945272941583</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>13.587962397142835</v>
+        <v>13.733945272941583</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>13.587962397142835</v>
+        <v>13.733945272941583</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>18.130533642200966</v>
+        <v>18.325319833352847</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12381,23 +12381,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>17.729479777530326</v>
+        <v>18.840757872801049</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>20.858211502976857</v>
+        <v>22.165597497413</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>20.858211502976857</v>
+        <v>22.165597497413</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>20.858211502976857</v>
+        <v>22.165597497413</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>35.349539273572262</v>
+        <v>37.093995510840848</v>
       </c>
       <c r="K106" s="75"/>
     </row>
